--- a/results/I3_N5_M2_T45_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1849.292496819066</v>
+        <v>1099.857102193639</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>28.88759962057447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.50161707209699</v>
+        <v>7.380784773767238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.63222975712775</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1781.480000000005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.26</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -631,64 +631,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.05123405644787</v>
+        <v>35.33522585468121</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.43528232449546</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.8160670982627</v>
+        <v>41.10005889649603</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.6146379281073</v>
+        <v>41.79636161641812</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1118,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1188,135 +1133,9 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1430,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1441,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1463,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1474,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>195.0800000000007</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>206.5100000000007</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>209.4450000000007</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>216.3300000000007</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.8300000000007</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1551,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1573,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1584,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>114.57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -1595,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>123.54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1606,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>114.81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>122.855</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -1628,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>122.56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1650,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1661,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1672,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1683,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1694,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>195.0800000000007</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1705,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>206.5100000000007</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>209.4450000000007</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -1727,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>216.3300000000007</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36">
@@ -1738,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.8300000000007</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1760,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.2749999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1771,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1782,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1793,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>95.08000000000067</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1851,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>106.5100000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>109.4450000000007</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>116.3300000000007</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1884,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.8300000000007</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1895,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>70.47999999999979</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>73.27499999999975</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1917,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.16999999999979</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1928,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>73.5649999999998</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1939,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.05499999999978</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1997,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2008,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2019,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2030,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2096,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2107,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2118,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2129,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2140,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2264,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2302,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2313,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2324,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2338,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2346,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2357,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2368,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2379,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2393,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2401,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2412,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2423,10 +2242,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2434,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2448,53 +2267,9 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
